--- a/source_data/uploaders/Trial briefs_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Trial briefs_hierarchy_aspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E9EC55-10D6-D64C-B7A1-7274A3F6C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F169D7F-8617-A74B-A27A-9BA5E4F08C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="741">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -1702,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Box</t>
+    <t>box</t>
   </si>
   <si>
     <t>9</t>
@@ -2264,7 +2261,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2612,7 +2608,7 @@
   <dimension ref="A1:HE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5400,23 +5396,11 @@
       <c r="K6" t="s">
         <v>545</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>547</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>548</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:213" x14ac:dyDescent="0.2">
@@ -5424,37 +5408,25 @@
         <v>542</v>
       </c>
       <c r="E7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" t="s">
         <v>550</v>
       </c>
-      <c r="F7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>551</v>
       </c>
-      <c r="I7" t="s">
-        <v>552</v>
-      </c>
       <c r="K7" t="s">
         <v>545</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>547</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>548</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:213" x14ac:dyDescent="0.2">
@@ -5462,67 +5434,64 @@
         <v>542</v>
       </c>
       <c r="E8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8" t="s">
         <v>553</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>554</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>555</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>556</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK8" t="s">
         <v>557</v>
       </c>
-      <c r="K8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>549</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BT8" t="s">
         <v>558</v>
       </c>
-      <c r="BL8" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>559</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>560</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="CM8" t="s">
         <v>561</v>
       </c>
-      <c r="CM8" t="s">
+      <c r="CN8" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE8" t="s">
         <v>562</v>
       </c>
-      <c r="CN8" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE8" t="s">
+      <c r="EF8" t="s">
         <v>563</v>
       </c>
-      <c r="EF8" t="s">
+      <c r="EG8" t="s">
         <v>564</v>
       </c>
-      <c r="EG8" t="s">
+      <c r="EH8" t="s">
         <v>565</v>
       </c>
-      <c r="EH8" t="s">
+      <c r="FO8" t="s">
         <v>566</v>
-      </c>
-      <c r="FO8" t="s">
-        <v>567</v>
       </c>
       <c r="FP8" t="s">
         <v>545</v>
@@ -5539,67 +5508,64 @@
         <v>542</v>
       </c>
       <c r="E9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" t="s">
         <v>568</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>569</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K9" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK9" t="s">
         <v>570</v>
       </c>
-      <c r="H9" t="s">
-        <v>556</v>
-      </c>
-      <c r="I9" t="s">
-        <v>557</v>
-      </c>
-      <c r="K9" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>549</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BT9" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM9" t="s">
         <v>571</v>
       </c>
-      <c r="BL9" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>572</v>
-      </c>
       <c r="CN9" t="s">
         <v>545</v>
       </c>
       <c r="EE9" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF9" t="s">
         <v>563</v>
       </c>
-      <c r="EF9" t="s">
+      <c r="EG9" t="s">
         <v>564</v>
       </c>
-      <c r="EG9" t="s">
+      <c r="EH9" t="s">
         <v>565</v>
       </c>
-      <c r="EH9" t="s">
+      <c r="FO9" t="s">
         <v>566</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>567</v>
       </c>
       <c r="FP9" t="s">
         <v>545</v>
@@ -5616,67 +5582,64 @@
         <v>542</v>
       </c>
       <c r="E10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F10" t="s">
         <v>573</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>574</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" t="s">
+        <v>556</v>
+      </c>
+      <c r="K10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK10" t="s">
         <v>575</v>
       </c>
-      <c r="H10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I10" t="s">
-        <v>557</v>
-      </c>
-      <c r="K10" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>549</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BT10" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM10" t="s">
         <v>576</v>
       </c>
-      <c r="BL10" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM10" t="s">
-        <v>577</v>
-      </c>
       <c r="CN10" t="s">
         <v>545</v>
       </c>
       <c r="EE10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF10" t="s">
         <v>563</v>
       </c>
-      <c r="EF10" t="s">
+      <c r="EG10" t="s">
         <v>564</v>
       </c>
-      <c r="EG10" t="s">
+      <c r="EH10" t="s">
         <v>565</v>
       </c>
-      <c r="EH10" t="s">
+      <c r="FO10" t="s">
         <v>566</v>
-      </c>
-      <c r="FO10" t="s">
-        <v>567</v>
       </c>
       <c r="FP10" t="s">
         <v>545</v>
@@ -5693,67 +5656,64 @@
         <v>542</v>
       </c>
       <c r="E11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F11" t="s">
         <v>578</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>579</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>555</v>
+      </c>
+      <c r="I11" t="s">
+        <v>556</v>
+      </c>
+      <c r="K11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK11" t="s">
         <v>580</v>
       </c>
-      <c r="H11" t="s">
-        <v>556</v>
-      </c>
-      <c r="I11" t="s">
-        <v>557</v>
-      </c>
-      <c r="K11" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BL11" t="s">
         <v>549</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BT11" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM11" t="s">
         <v>581</v>
       </c>
-      <c r="BL11" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>582</v>
-      </c>
       <c r="CN11" t="s">
         <v>545</v>
       </c>
       <c r="EE11" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF11" t="s">
         <v>563</v>
       </c>
-      <c r="EF11" t="s">
+      <c r="EG11" t="s">
         <v>564</v>
       </c>
-      <c r="EG11" t="s">
+      <c r="EH11" t="s">
         <v>565</v>
       </c>
-      <c r="EH11" t="s">
+      <c r="FO11" t="s">
         <v>566</v>
-      </c>
-      <c r="FO11" t="s">
-        <v>567</v>
       </c>
       <c r="FP11" t="s">
         <v>545</v>
@@ -5770,67 +5730,64 @@
         <v>542</v>
       </c>
       <c r="E12" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" t="s">
         <v>583</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>584</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>555</v>
+      </c>
+      <c r="I12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>557</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM12" t="s">
         <v>585</v>
       </c>
-      <c r="H12" t="s">
-        <v>556</v>
-      </c>
-      <c r="I12" t="s">
-        <v>557</v>
-      </c>
-      <c r="K12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>558</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>586</v>
-      </c>
       <c r="CN12" t="s">
         <v>545</v>
       </c>
       <c r="EE12" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF12" t="s">
         <v>563</v>
       </c>
-      <c r="EF12" t="s">
+      <c r="EG12" t="s">
         <v>564</v>
       </c>
-      <c r="EG12" t="s">
+      <c r="EH12" t="s">
         <v>565</v>
       </c>
-      <c r="EH12" t="s">
+      <c r="FO12" t="s">
         <v>566</v>
-      </c>
-      <c r="FO12" t="s">
-        <v>567</v>
       </c>
       <c r="FP12" t="s">
         <v>545</v>
@@ -5847,67 +5804,64 @@
         <v>542</v>
       </c>
       <c r="E13" t="s">
+        <v>586</v>
+      </c>
+      <c r="F13" t="s">
         <v>587</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>588</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" t="s">
+        <v>556</v>
+      </c>
+      <c r="K13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK13" t="s">
         <v>589</v>
       </c>
-      <c r="H13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I13" t="s">
-        <v>557</v>
-      </c>
-      <c r="K13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="BL13" t="s">
         <v>549</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BT13" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM13" t="s">
         <v>590</v>
       </c>
-      <c r="BL13" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>591</v>
-      </c>
       <c r="CN13" t="s">
         <v>545</v>
       </c>
       <c r="EE13" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF13" t="s">
         <v>563</v>
       </c>
-      <c r="EF13" t="s">
+      <c r="EG13" t="s">
         <v>564</v>
       </c>
-      <c r="EG13" t="s">
+      <c r="EH13" t="s">
         <v>565</v>
       </c>
-      <c r="EH13" t="s">
+      <c r="FO13" t="s">
         <v>566</v>
-      </c>
-      <c r="FO13" t="s">
-        <v>567</v>
       </c>
       <c r="FP13" t="s">
         <v>545</v>
@@ -5924,67 +5878,64 @@
         <v>542</v>
       </c>
       <c r="E14" t="s">
+        <v>591</v>
+      </c>
+      <c r="F14" t="s">
         <v>592</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>593</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" t="s">
+        <v>556</v>
+      </c>
+      <c r="K14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK14" t="s">
         <v>594</v>
       </c>
-      <c r="H14" t="s">
-        <v>556</v>
-      </c>
-      <c r="I14" t="s">
-        <v>557</v>
-      </c>
-      <c r="K14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ14" t="s">
+      <c r="BL14" t="s">
         <v>549</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BT14" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM14" t="s">
         <v>595</v>
       </c>
-      <c r="BL14" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>596</v>
-      </c>
       <c r="CN14" t="s">
         <v>545</v>
       </c>
       <c r="EE14" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF14" t="s">
         <v>563</v>
       </c>
-      <c r="EF14" t="s">
+      <c r="EG14" t="s">
         <v>564</v>
       </c>
-      <c r="EG14" t="s">
+      <c r="EH14" t="s">
         <v>565</v>
       </c>
-      <c r="EH14" t="s">
+      <c r="FO14" t="s">
         <v>566</v>
-      </c>
-      <c r="FO14" t="s">
-        <v>567</v>
       </c>
       <c r="FP14" t="s">
         <v>545</v>
@@ -6001,67 +5952,64 @@
         <v>542</v>
       </c>
       <c r="E15" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" t="s">
         <v>597</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>598</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>555</v>
+      </c>
+      <c r="I15" t="s">
+        <v>556</v>
+      </c>
+      <c r="K15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>570</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM15" t="s">
         <v>599</v>
       </c>
-      <c r="H15" t="s">
-        <v>556</v>
-      </c>
-      <c r="I15" t="s">
-        <v>557</v>
-      </c>
-      <c r="K15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>571</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>600</v>
-      </c>
       <c r="CN15" t="s">
         <v>545</v>
       </c>
       <c r="EE15" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF15" t="s">
         <v>563</v>
       </c>
-      <c r="EF15" t="s">
+      <c r="EG15" t="s">
         <v>564</v>
       </c>
-      <c r="EG15" t="s">
+      <c r="EH15" t="s">
         <v>565</v>
       </c>
-      <c r="EH15" t="s">
+      <c r="FO15" t="s">
         <v>566</v>
-      </c>
-      <c r="FO15" t="s">
-        <v>567</v>
       </c>
       <c r="FP15" t="s">
         <v>545</v>
@@ -6078,67 +6026,64 @@
         <v>542</v>
       </c>
       <c r="E16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" t="s">
         <v>601</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>602</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>557</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM16" t="s">
         <v>603</v>
       </c>
-      <c r="H16" t="s">
-        <v>556</v>
-      </c>
-      <c r="I16" t="s">
-        <v>557</v>
-      </c>
-      <c r="K16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>558</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>604</v>
-      </c>
       <c r="CN16" t="s">
         <v>545</v>
       </c>
       <c r="EE16" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF16" t="s">
         <v>563</v>
       </c>
-      <c r="EF16" t="s">
+      <c r="EG16" t="s">
         <v>564</v>
       </c>
-      <c r="EG16" t="s">
+      <c r="EH16" t="s">
         <v>565</v>
       </c>
-      <c r="EH16" t="s">
+      <c r="FO16" t="s">
         <v>566</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>567</v>
       </c>
       <c r="FP16" t="s">
         <v>545</v>
@@ -6155,67 +6100,64 @@
         <v>542</v>
       </c>
       <c r="E17" t="s">
+        <v>604</v>
+      </c>
+      <c r="F17" t="s">
         <v>605</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>606</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>555</v>
+      </c>
+      <c r="I17" t="s">
+        <v>556</v>
+      </c>
+      <c r="K17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK17" t="s">
         <v>607</v>
       </c>
-      <c r="H17" t="s">
-        <v>556</v>
-      </c>
-      <c r="I17" t="s">
-        <v>557</v>
-      </c>
-      <c r="K17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ17" t="s">
+      <c r="BL17" t="s">
         <v>549</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BT17" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM17" t="s">
         <v>608</v>
       </c>
-      <c r="BL17" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>609</v>
-      </c>
       <c r="CN17" t="s">
         <v>545</v>
       </c>
       <c r="EE17" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF17" t="s">
         <v>563</v>
       </c>
-      <c r="EF17" t="s">
+      <c r="EG17" t="s">
         <v>564</v>
       </c>
-      <c r="EG17" t="s">
+      <c r="EH17" t="s">
         <v>565</v>
       </c>
-      <c r="EH17" t="s">
+      <c r="FO17" t="s">
         <v>566</v>
-      </c>
-      <c r="FO17" t="s">
-        <v>567</v>
       </c>
       <c r="FP17" t="s">
         <v>545</v>
@@ -6232,67 +6174,64 @@
         <v>542</v>
       </c>
       <c r="E18" t="s">
+        <v>609</v>
+      </c>
+      <c r="F18" t="s">
         <v>610</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>611</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>555</v>
+      </c>
+      <c r="I18" t="s">
+        <v>556</v>
+      </c>
+      <c r="K18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK18" t="s">
         <v>612</v>
       </c>
-      <c r="H18" t="s">
-        <v>556</v>
-      </c>
-      <c r="I18" t="s">
-        <v>557</v>
-      </c>
-      <c r="K18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ18" t="s">
+      <c r="BL18" t="s">
         <v>549</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BT18" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM18" t="s">
         <v>613</v>
       </c>
-      <c r="BL18" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>614</v>
-      </c>
       <c r="CN18" t="s">
         <v>545</v>
       </c>
       <c r="EE18" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF18" t="s">
         <v>563</v>
       </c>
-      <c r="EF18" t="s">
+      <c r="EG18" t="s">
         <v>564</v>
       </c>
-      <c r="EG18" t="s">
+      <c r="EH18" t="s">
         <v>565</v>
       </c>
-      <c r="EH18" t="s">
+      <c r="FO18" t="s">
         <v>566</v>
-      </c>
-      <c r="FO18" t="s">
-        <v>567</v>
       </c>
       <c r="FP18" t="s">
         <v>545</v>
@@ -6309,67 +6248,64 @@
         <v>542</v>
       </c>
       <c r="E19" t="s">
+        <v>614</v>
+      </c>
+      <c r="F19" t="s">
         <v>615</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>616</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>555</v>
+      </c>
+      <c r="I19" t="s">
+        <v>556</v>
+      </c>
+      <c r="K19" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK19" t="s">
         <v>617</v>
       </c>
-      <c r="H19" t="s">
-        <v>556</v>
-      </c>
-      <c r="I19" t="s">
-        <v>557</v>
-      </c>
-      <c r="K19" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ19" t="s">
+      <c r="BL19" t="s">
         <v>549</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BT19" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM19" t="s">
         <v>618</v>
       </c>
-      <c r="BL19" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>619</v>
-      </c>
       <c r="CN19" t="s">
         <v>545</v>
       </c>
       <c r="EE19" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF19" t="s">
         <v>563</v>
       </c>
-      <c r="EF19" t="s">
+      <c r="EG19" t="s">
         <v>564</v>
       </c>
-      <c r="EG19" t="s">
+      <c r="EH19" t="s">
         <v>565</v>
       </c>
-      <c r="EH19" t="s">
+      <c r="FO19" t="s">
         <v>566</v>
-      </c>
-      <c r="FO19" t="s">
-        <v>567</v>
       </c>
       <c r="FP19" t="s">
         <v>545</v>
@@ -6386,67 +6322,64 @@
         <v>542</v>
       </c>
       <c r="E20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F20" t="s">
         <v>620</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>621</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>555</v>
+      </c>
+      <c r="I20" t="s">
+        <v>556</v>
+      </c>
+      <c r="K20" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK20" t="s">
         <v>622</v>
       </c>
-      <c r="H20" t="s">
-        <v>556</v>
-      </c>
-      <c r="I20" t="s">
-        <v>557</v>
-      </c>
-      <c r="K20" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ20" t="s">
+      <c r="BL20" t="s">
         <v>549</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BT20" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM20" t="s">
         <v>623</v>
       </c>
-      <c r="BL20" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>624</v>
-      </c>
       <c r="CN20" t="s">
         <v>545</v>
       </c>
       <c r="EE20" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF20" t="s">
         <v>563</v>
       </c>
-      <c r="EF20" t="s">
+      <c r="EG20" t="s">
         <v>564</v>
       </c>
-      <c r="EG20" t="s">
+      <c r="EH20" t="s">
         <v>565</v>
       </c>
-      <c r="EH20" t="s">
+      <c r="FO20" t="s">
         <v>566</v>
-      </c>
-      <c r="FO20" t="s">
-        <v>567</v>
       </c>
       <c r="FP20" t="s">
         <v>545</v>
@@ -6463,67 +6396,64 @@
         <v>542</v>
       </c>
       <c r="E21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F21" t="s">
         <v>625</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>626</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I21" t="s">
+        <v>556</v>
+      </c>
+      <c r="K21" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK21" t="s">
         <v>627</v>
       </c>
-      <c r="H21" t="s">
-        <v>556</v>
-      </c>
-      <c r="I21" t="s">
-        <v>557</v>
-      </c>
-      <c r="K21" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ21" t="s">
+      <c r="BL21" t="s">
         <v>549</v>
       </c>
-      <c r="BK21" t="s">
+      <c r="BT21" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM21" t="s">
         <v>628</v>
       </c>
-      <c r="BL21" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>629</v>
-      </c>
       <c r="CN21" t="s">
         <v>545</v>
       </c>
       <c r="EE21" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF21" t="s">
         <v>563</v>
       </c>
-      <c r="EF21" t="s">
+      <c r="EG21" t="s">
         <v>564</v>
       </c>
-      <c r="EG21" t="s">
+      <c r="EH21" t="s">
         <v>565</v>
       </c>
-      <c r="EH21" t="s">
+      <c r="FO21" t="s">
         <v>566</v>
-      </c>
-      <c r="FO21" t="s">
-        <v>567</v>
       </c>
       <c r="FP21" t="s">
         <v>545</v>
@@ -6540,67 +6470,64 @@
         <v>542</v>
       </c>
       <c r="E22" t="s">
+        <v>629</v>
+      </c>
+      <c r="F22" t="s">
         <v>630</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>631</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>555</v>
+      </c>
+      <c r="I22" t="s">
+        <v>556</v>
+      </c>
+      <c r="K22" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK22" t="s">
         <v>632</v>
       </c>
-      <c r="H22" t="s">
-        <v>556</v>
-      </c>
-      <c r="I22" t="s">
-        <v>557</v>
-      </c>
-      <c r="K22" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ22" t="s">
+      <c r="BL22" t="s">
         <v>549</v>
       </c>
-      <c r="BK22" t="s">
+      <c r="BT22" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM22" t="s">
         <v>633</v>
       </c>
-      <c r="BL22" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU22" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM22" t="s">
-        <v>634</v>
-      </c>
       <c r="CN22" t="s">
         <v>545</v>
       </c>
       <c r="EE22" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF22" t="s">
         <v>563</v>
       </c>
-      <c r="EF22" t="s">
+      <c r="EG22" t="s">
         <v>564</v>
       </c>
-      <c r="EG22" t="s">
+      <c r="EH22" t="s">
         <v>565</v>
       </c>
-      <c r="EH22" t="s">
+      <c r="FO22" t="s">
         <v>566</v>
-      </c>
-      <c r="FO22" t="s">
-        <v>567</v>
       </c>
       <c r="FP22" t="s">
         <v>545</v>
@@ -6617,67 +6544,64 @@
         <v>542</v>
       </c>
       <c r="E23" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" t="s">
         <v>635</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>636</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>555</v>
+      </c>
+      <c r="I23" t="s">
+        <v>556</v>
+      </c>
+      <c r="K23" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK23" t="s">
         <v>637</v>
       </c>
-      <c r="H23" t="s">
-        <v>556</v>
-      </c>
-      <c r="I23" t="s">
-        <v>557</v>
-      </c>
-      <c r="K23" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ23" t="s">
+      <c r="BL23" t="s">
         <v>549</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BT23" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM23" t="s">
         <v>638</v>
       </c>
-      <c r="BL23" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM23" t="s">
-        <v>639</v>
-      </c>
       <c r="CN23" t="s">
         <v>545</v>
       </c>
       <c r="EE23" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF23" t="s">
         <v>563</v>
       </c>
-      <c r="EF23" t="s">
+      <c r="EG23" t="s">
         <v>564</v>
       </c>
-      <c r="EG23" t="s">
+      <c r="EH23" t="s">
         <v>565</v>
       </c>
-      <c r="EH23" t="s">
+      <c r="FO23" t="s">
         <v>566</v>
-      </c>
-      <c r="FO23" t="s">
-        <v>567</v>
       </c>
       <c r="FP23" t="s">
         <v>545</v>
@@ -6694,67 +6618,64 @@
         <v>542</v>
       </c>
       <c r="E24" t="s">
+        <v>639</v>
+      </c>
+      <c r="F24" t="s">
         <v>640</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>641</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>555</v>
+      </c>
+      <c r="I24" t="s">
+        <v>556</v>
+      </c>
+      <c r="K24" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK24" t="s">
         <v>642</v>
       </c>
-      <c r="H24" t="s">
-        <v>556</v>
-      </c>
-      <c r="I24" t="s">
-        <v>557</v>
-      </c>
-      <c r="K24" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ24" t="s">
+      <c r="BL24" t="s">
         <v>549</v>
       </c>
-      <c r="BK24" t="s">
+      <c r="BT24" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM24" t="s">
         <v>643</v>
       </c>
-      <c r="BL24" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>644</v>
-      </c>
       <c r="CN24" t="s">
         <v>545</v>
       </c>
       <c r="EE24" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF24" t="s">
         <v>563</v>
       </c>
-      <c r="EF24" t="s">
+      <c r="EG24" t="s">
         <v>564</v>
       </c>
-      <c r="EG24" t="s">
+      <c r="EH24" t="s">
         <v>565</v>
       </c>
-      <c r="EH24" t="s">
+      <c r="FO24" t="s">
         <v>566</v>
-      </c>
-      <c r="FO24" t="s">
-        <v>567</v>
       </c>
       <c r="FP24" t="s">
         <v>545</v>
@@ -6771,67 +6692,64 @@
         <v>542</v>
       </c>
       <c r="E25" t="s">
+        <v>644</v>
+      </c>
+      <c r="F25" t="s">
         <v>645</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>646</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>555</v>
+      </c>
+      <c r="I25" t="s">
+        <v>556</v>
+      </c>
+      <c r="K25" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK25" t="s">
         <v>647</v>
       </c>
-      <c r="H25" t="s">
-        <v>556</v>
-      </c>
-      <c r="I25" t="s">
-        <v>557</v>
-      </c>
-      <c r="K25" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ25" t="s">
+      <c r="BL25" t="s">
         <v>549</v>
       </c>
-      <c r="BK25" t="s">
+      <c r="BT25" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM25" t="s">
         <v>648</v>
       </c>
-      <c r="BL25" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM25" t="s">
-        <v>649</v>
-      </c>
       <c r="CN25" t="s">
         <v>545</v>
       </c>
       <c r="EE25" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF25" t="s">
         <v>563</v>
       </c>
-      <c r="EF25" t="s">
+      <c r="EG25" t="s">
         <v>564</v>
       </c>
-      <c r="EG25" t="s">
+      <c r="EH25" t="s">
         <v>565</v>
       </c>
-      <c r="EH25" t="s">
+      <c r="FO25" t="s">
         <v>566</v>
-      </c>
-      <c r="FO25" t="s">
-        <v>567</v>
       </c>
       <c r="FP25" t="s">
         <v>545</v>
@@ -6848,67 +6766,64 @@
         <v>542</v>
       </c>
       <c r="E26" t="s">
+        <v>649</v>
+      </c>
+      <c r="F26" t="s">
         <v>650</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>651</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>555</v>
+      </c>
+      <c r="I26" t="s">
+        <v>556</v>
+      </c>
+      <c r="K26" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK26" t="s">
         <v>652</v>
       </c>
-      <c r="H26" t="s">
-        <v>556</v>
-      </c>
-      <c r="I26" t="s">
-        <v>557</v>
-      </c>
-      <c r="K26" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ26" t="s">
+      <c r="BL26" t="s">
         <v>549</v>
       </c>
-      <c r="BK26" t="s">
+      <c r="BT26" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM26" t="s">
         <v>653</v>
       </c>
-      <c r="BL26" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>654</v>
-      </c>
       <c r="CN26" t="s">
         <v>545</v>
       </c>
       <c r="EE26" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF26" t="s">
         <v>563</v>
       </c>
-      <c r="EF26" t="s">
+      <c r="EG26" t="s">
         <v>564</v>
       </c>
-      <c r="EG26" t="s">
+      <c r="EH26" t="s">
         <v>565</v>
       </c>
-      <c r="EH26" t="s">
+      <c r="FO26" t="s">
         <v>566</v>
-      </c>
-      <c r="FO26" t="s">
-        <v>567</v>
       </c>
       <c r="FP26" t="s">
         <v>545</v>
@@ -6925,67 +6840,64 @@
         <v>542</v>
       </c>
       <c r="E27" t="s">
+        <v>654</v>
+      </c>
+      <c r="F27" t="s">
         <v>655</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>656</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>555</v>
+      </c>
+      <c r="I27" t="s">
+        <v>556</v>
+      </c>
+      <c r="K27" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK27" t="s">
         <v>657</v>
       </c>
-      <c r="H27" t="s">
-        <v>556</v>
-      </c>
-      <c r="I27" t="s">
-        <v>557</v>
-      </c>
-      <c r="K27" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ27" t="s">
+      <c r="BL27" t="s">
         <v>549</v>
       </c>
-      <c r="BK27" t="s">
+      <c r="BT27" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM27" t="s">
         <v>658</v>
       </c>
-      <c r="BL27" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM27" t="s">
-        <v>659</v>
-      </c>
       <c r="CN27" t="s">
         <v>545</v>
       </c>
       <c r="EE27" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF27" t="s">
         <v>563</v>
       </c>
-      <c r="EF27" t="s">
+      <c r="EG27" t="s">
         <v>564</v>
       </c>
-      <c r="EG27" t="s">
+      <c r="EH27" t="s">
         <v>565</v>
       </c>
-      <c r="EH27" t="s">
+      <c r="FO27" t="s">
         <v>566</v>
-      </c>
-      <c r="FO27" t="s">
-        <v>567</v>
       </c>
       <c r="FP27" t="s">
         <v>545</v>
@@ -7002,67 +6914,64 @@
         <v>542</v>
       </c>
       <c r="E28" t="s">
+        <v>659</v>
+      </c>
+      <c r="F28" t="s">
         <v>660</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>661</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>555</v>
+      </c>
+      <c r="I28" t="s">
+        <v>556</v>
+      </c>
+      <c r="K28" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>589</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM28" t="s">
         <v>662</v>
       </c>
-      <c r="H28" t="s">
-        <v>556</v>
-      </c>
-      <c r="I28" t="s">
-        <v>557</v>
-      </c>
-      <c r="K28" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>590</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU28" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM28" t="s">
-        <v>663</v>
-      </c>
       <c r="CN28" t="s">
         <v>545</v>
       </c>
       <c r="EE28" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF28" t="s">
         <v>563</v>
       </c>
-      <c r="EF28" t="s">
+      <c r="EG28" t="s">
         <v>564</v>
       </c>
-      <c r="EG28" t="s">
+      <c r="EH28" t="s">
         <v>565</v>
       </c>
-      <c r="EH28" t="s">
+      <c r="FO28" t="s">
         <v>566</v>
-      </c>
-      <c r="FO28" t="s">
-        <v>567</v>
       </c>
       <c r="FP28" t="s">
         <v>545</v>
@@ -7079,67 +6988,64 @@
         <v>542</v>
       </c>
       <c r="E29" t="s">
+        <v>663</v>
+      </c>
+      <c r="F29" t="s">
         <v>664</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>665</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>555</v>
+      </c>
+      <c r="I29" t="s">
+        <v>556</v>
+      </c>
+      <c r="K29" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>612</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM29" t="s">
         <v>666</v>
       </c>
-      <c r="H29" t="s">
-        <v>556</v>
-      </c>
-      <c r="I29" t="s">
-        <v>557</v>
-      </c>
-      <c r="K29" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>613</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU29" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV29" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM29" t="s">
-        <v>667</v>
-      </c>
       <c r="CN29" t="s">
         <v>545</v>
       </c>
       <c r="EE29" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF29" t="s">
         <v>563</v>
       </c>
-      <c r="EF29" t="s">
+      <c r="EG29" t="s">
         <v>564</v>
       </c>
-      <c r="EG29" t="s">
+      <c r="EH29" t="s">
         <v>565</v>
       </c>
-      <c r="EH29" t="s">
+      <c r="FO29" t="s">
         <v>566</v>
-      </c>
-      <c r="FO29" t="s">
-        <v>567</v>
       </c>
       <c r="FP29" t="s">
         <v>545</v>
@@ -7156,67 +7062,64 @@
         <v>542</v>
       </c>
       <c r="E30" t="s">
+        <v>667</v>
+      </c>
+      <c r="F30" t="s">
         <v>668</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>669</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>555</v>
+      </c>
+      <c r="I30" t="s">
+        <v>556</v>
+      </c>
+      <c r="K30" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK30" t="s">
         <v>670</v>
       </c>
-      <c r="H30" t="s">
-        <v>556</v>
-      </c>
-      <c r="I30" t="s">
-        <v>557</v>
-      </c>
-      <c r="K30" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ30" t="s">
+      <c r="BL30" t="s">
         <v>549</v>
       </c>
-      <c r="BK30" t="s">
+      <c r="BT30" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM30" t="s">
         <v>671</v>
       </c>
-      <c r="BL30" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU30" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM30" t="s">
-        <v>672</v>
-      </c>
       <c r="CN30" t="s">
         <v>545</v>
       </c>
       <c r="EE30" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF30" t="s">
         <v>563</v>
       </c>
-      <c r="EF30" t="s">
+      <c r="EG30" t="s">
         <v>564</v>
       </c>
-      <c r="EG30" t="s">
+      <c r="EH30" t="s">
         <v>565</v>
       </c>
-      <c r="EH30" t="s">
+      <c r="FO30" t="s">
         <v>566</v>
-      </c>
-      <c r="FO30" t="s">
-        <v>567</v>
       </c>
       <c r="FP30" t="s">
         <v>545</v>
@@ -7233,67 +7136,64 @@
         <v>542</v>
       </c>
       <c r="E31" t="s">
+        <v>672</v>
+      </c>
+      <c r="F31" t="s">
         <v>673</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>674</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>555</v>
+      </c>
+      <c r="I31" t="s">
+        <v>556</v>
+      </c>
+      <c r="K31" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK31" t="s">
         <v>675</v>
       </c>
-      <c r="H31" t="s">
-        <v>556</v>
-      </c>
-      <c r="I31" t="s">
-        <v>557</v>
-      </c>
-      <c r="K31" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ31" t="s">
+      <c r="BL31" t="s">
         <v>549</v>
       </c>
-      <c r="BK31" t="s">
+      <c r="BT31" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM31" t="s">
         <v>676</v>
       </c>
-      <c r="BL31" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU31" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM31" t="s">
-        <v>677</v>
-      </c>
       <c r="CN31" t="s">
         <v>545</v>
       </c>
       <c r="EE31" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF31" t="s">
         <v>563</v>
       </c>
-      <c r="EF31" t="s">
+      <c r="EG31" t="s">
         <v>564</v>
       </c>
-      <c r="EG31" t="s">
+      <c r="EH31" t="s">
         <v>565</v>
       </c>
-      <c r="EH31" t="s">
+      <c r="FO31" t="s">
         <v>566</v>
-      </c>
-      <c r="FO31" t="s">
-        <v>567</v>
       </c>
       <c r="FP31" t="s">
         <v>545</v>
@@ -7310,67 +7210,64 @@
         <v>542</v>
       </c>
       <c r="E32" t="s">
+        <v>677</v>
+      </c>
+      <c r="F32" t="s">
         <v>678</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>679</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>555</v>
+      </c>
+      <c r="I32" t="s">
+        <v>556</v>
+      </c>
+      <c r="K32" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK32" t="s">
         <v>680</v>
       </c>
-      <c r="H32" t="s">
-        <v>556</v>
-      </c>
-      <c r="I32" t="s">
-        <v>557</v>
-      </c>
-      <c r="K32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ32" t="s">
+      <c r="BL32" t="s">
         <v>549</v>
       </c>
-      <c r="BK32" t="s">
+      <c r="BT32" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM32" t="s">
         <v>681</v>
       </c>
-      <c r="BL32" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>682</v>
-      </c>
       <c r="CN32" t="s">
         <v>545</v>
       </c>
       <c r="EE32" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF32" t="s">
         <v>563</v>
       </c>
-      <c r="EF32" t="s">
+      <c r="EG32" t="s">
         <v>564</v>
       </c>
-      <c r="EG32" t="s">
+      <c r="EH32" t="s">
         <v>565</v>
       </c>
-      <c r="EH32" t="s">
+      <c r="FO32" t="s">
         <v>566</v>
-      </c>
-      <c r="FO32" t="s">
-        <v>567</v>
       </c>
       <c r="FP32" t="s">
         <v>545</v>
@@ -7387,67 +7284,64 @@
         <v>542</v>
       </c>
       <c r="E33" t="s">
+        <v>682</v>
+      </c>
+      <c r="F33" t="s">
         <v>683</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>684</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>555</v>
+      </c>
+      <c r="I33" t="s">
+        <v>556</v>
+      </c>
+      <c r="K33" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>627</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM33" t="s">
         <v>685</v>
       </c>
-      <c r="H33" t="s">
-        <v>556</v>
-      </c>
-      <c r="I33" t="s">
-        <v>557</v>
-      </c>
-      <c r="K33" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>628</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>686</v>
-      </c>
       <c r="CN33" t="s">
         <v>545</v>
       </c>
       <c r="EE33" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF33" t="s">
         <v>563</v>
       </c>
-      <c r="EF33" t="s">
+      <c r="EG33" t="s">
         <v>564</v>
       </c>
-      <c r="EG33" t="s">
+      <c r="EH33" t="s">
         <v>565</v>
       </c>
-      <c r="EH33" t="s">
+      <c r="FO33" t="s">
         <v>566</v>
-      </c>
-      <c r="FO33" t="s">
-        <v>567</v>
       </c>
       <c r="FP33" t="s">
         <v>545</v>
@@ -7464,67 +7358,64 @@
         <v>542</v>
       </c>
       <c r="E34" t="s">
+        <v>686</v>
+      </c>
+      <c r="F34" t="s">
         <v>687</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>688</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>555</v>
+      </c>
+      <c r="I34" t="s">
+        <v>556</v>
+      </c>
+      <c r="K34" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK34" t="s">
         <v>689</v>
       </c>
-      <c r="H34" t="s">
-        <v>556</v>
-      </c>
-      <c r="I34" t="s">
-        <v>557</v>
-      </c>
-      <c r="K34" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ34" t="s">
+      <c r="BL34" t="s">
         <v>549</v>
       </c>
-      <c r="BK34" t="s">
+      <c r="BT34" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM34" t="s">
         <v>690</v>
       </c>
-      <c r="BL34" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>691</v>
-      </c>
       <c r="CN34" t="s">
         <v>545</v>
       </c>
       <c r="EE34" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF34" t="s">
         <v>563</v>
       </c>
-      <c r="EF34" t="s">
+      <c r="EG34" t="s">
         <v>564</v>
       </c>
-      <c r="EG34" t="s">
+      <c r="EH34" t="s">
         <v>565</v>
       </c>
-      <c r="EH34" t="s">
+      <c r="FO34" t="s">
         <v>566</v>
-      </c>
-      <c r="FO34" t="s">
-        <v>567</v>
       </c>
       <c r="FP34" t="s">
         <v>545</v>
@@ -7541,67 +7432,64 @@
         <v>542</v>
       </c>
       <c r="E35" t="s">
+        <v>691</v>
+      </c>
+      <c r="F35" t="s">
         <v>692</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>693</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>555</v>
+      </c>
+      <c r="I35" t="s">
+        <v>556</v>
+      </c>
+      <c r="K35" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK35" t="s">
         <v>694</v>
       </c>
-      <c r="H35" t="s">
-        <v>556</v>
-      </c>
-      <c r="I35" t="s">
-        <v>557</v>
-      </c>
-      <c r="K35" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ35" t="s">
+      <c r="BL35" t="s">
         <v>549</v>
       </c>
-      <c r="BK35" t="s">
+      <c r="BT35" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM35" t="s">
         <v>695</v>
       </c>
-      <c r="BL35" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM35" t="s">
-        <v>696</v>
-      </c>
       <c r="CN35" t="s">
         <v>545</v>
       </c>
       <c r="EE35" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF35" t="s">
         <v>563</v>
       </c>
-      <c r="EF35" t="s">
+      <c r="EG35" t="s">
         <v>564</v>
       </c>
-      <c r="EG35" t="s">
+      <c r="EH35" t="s">
         <v>565</v>
       </c>
-      <c r="EH35" t="s">
+      <c r="FO35" t="s">
         <v>566</v>
-      </c>
-      <c r="FO35" t="s">
-        <v>567</v>
       </c>
       <c r="FP35" t="s">
         <v>545</v>
@@ -7618,67 +7506,64 @@
         <v>542</v>
       </c>
       <c r="E36" t="s">
+        <v>696</v>
+      </c>
+      <c r="F36" t="s">
         <v>697</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>698</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>555</v>
+      </c>
+      <c r="I36" t="s">
+        <v>556</v>
+      </c>
+      <c r="K36" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK36" t="s">
         <v>699</v>
       </c>
-      <c r="H36" t="s">
-        <v>556</v>
-      </c>
-      <c r="I36" t="s">
-        <v>557</v>
-      </c>
-      <c r="K36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ36" t="s">
+      <c r="BL36" t="s">
         <v>549</v>
       </c>
-      <c r="BK36" t="s">
+      <c r="BT36" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV36" t="s">
         <v>700</v>
       </c>
-      <c r="BL36" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU36" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV36" t="s">
+      <c r="CM36" t="s">
         <v>701</v>
       </c>
-      <c r="CM36" t="s">
+      <c r="CN36" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE36" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF36" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG36" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH36" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO36" t="s">
         <v>702</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE36" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF36" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG36" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH36" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO36" t="s">
-        <v>703</v>
       </c>
       <c r="FP36" t="s">
         <v>545</v>
@@ -7695,67 +7580,64 @@
         <v>542</v>
       </c>
       <c r="E37" t="s">
+        <v>703</v>
+      </c>
+      <c r="F37" t="s">
         <v>704</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>705</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>555</v>
+      </c>
+      <c r="I37" t="s">
+        <v>556</v>
+      </c>
+      <c r="K37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK37" t="s">
         <v>706</v>
       </c>
-      <c r="H37" t="s">
-        <v>556</v>
-      </c>
-      <c r="I37" t="s">
-        <v>557</v>
-      </c>
-      <c r="K37" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ37" t="s">
+      <c r="BL37" t="s">
         <v>549</v>
       </c>
-      <c r="BK37" t="s">
+      <c r="BT37" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM37" t="s">
         <v>707</v>
       </c>
-      <c r="BL37" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM37" t="s">
-        <v>708</v>
-      </c>
       <c r="CN37" t="s">
         <v>545</v>
       </c>
       <c r="EE37" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF37" t="s">
         <v>563</v>
       </c>
-      <c r="EF37" t="s">
+      <c r="EG37" t="s">
         <v>564</v>
       </c>
-      <c r="EG37" t="s">
+      <c r="EH37" t="s">
         <v>565</v>
       </c>
-      <c r="EH37" t="s">
-        <v>566</v>
-      </c>
       <c r="FO37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP37" t="s">
         <v>545</v>
@@ -7772,67 +7654,64 @@
         <v>542</v>
       </c>
       <c r="E38" t="s">
+        <v>708</v>
+      </c>
+      <c r="F38" t="s">
         <v>709</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>710</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>555</v>
+      </c>
+      <c r="I38" t="s">
+        <v>556</v>
+      </c>
+      <c r="K38" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>694</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM38" t="s">
         <v>711</v>
       </c>
-      <c r="H38" t="s">
-        <v>556</v>
-      </c>
-      <c r="I38" t="s">
-        <v>557</v>
-      </c>
-      <c r="K38" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI38" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>695</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT38" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU38" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM38" t="s">
-        <v>712</v>
-      </c>
       <c r="CN38" t="s">
         <v>545</v>
       </c>
       <c r="EE38" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF38" t="s">
         <v>563</v>
       </c>
-      <c r="EF38" t="s">
+      <c r="EG38" t="s">
         <v>564</v>
       </c>
-      <c r="EG38" t="s">
+      <c r="EH38" t="s">
         <v>565</v>
       </c>
-      <c r="EH38" t="s">
-        <v>566</v>
-      </c>
       <c r="FO38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP38" t="s">
         <v>545</v>
@@ -7849,67 +7728,64 @@
         <v>542</v>
       </c>
       <c r="E39" t="s">
+        <v>712</v>
+      </c>
+      <c r="F39" t="s">
         <v>713</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>714</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>555</v>
+      </c>
+      <c r="I39" t="s">
+        <v>556</v>
+      </c>
+      <c r="K39" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK39" t="s">
         <v>715</v>
       </c>
-      <c r="H39" t="s">
-        <v>556</v>
-      </c>
-      <c r="I39" t="s">
-        <v>557</v>
-      </c>
-      <c r="K39" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI39" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ39" t="s">
+      <c r="BL39" t="s">
         <v>549</v>
       </c>
-      <c r="BK39" t="s">
+      <c r="BT39" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM39" t="s">
         <v>716</v>
       </c>
-      <c r="BL39" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT39" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU39" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM39" t="s">
-        <v>717</v>
-      </c>
       <c r="CN39" t="s">
         <v>545</v>
       </c>
       <c r="EE39" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF39" t="s">
         <v>563</v>
       </c>
-      <c r="EF39" t="s">
+      <c r="EG39" t="s">
         <v>564</v>
       </c>
-      <c r="EG39" t="s">
+      <c r="EH39" t="s">
         <v>565</v>
       </c>
-      <c r="EH39" t="s">
-        <v>566</v>
-      </c>
       <c r="FO39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP39" t="s">
         <v>545</v>
@@ -7926,67 +7802,64 @@
         <v>542</v>
       </c>
       <c r="E40" t="s">
+        <v>717</v>
+      </c>
+      <c r="F40" t="s">
         <v>718</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>719</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>555</v>
+      </c>
+      <c r="I40" t="s">
+        <v>556</v>
+      </c>
+      <c r="K40" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK40" t="s">
         <v>720</v>
       </c>
-      <c r="H40" t="s">
-        <v>556</v>
-      </c>
-      <c r="I40" t="s">
-        <v>557</v>
-      </c>
-      <c r="K40" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI40" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ40" t="s">
+      <c r="BL40" t="s">
         <v>549</v>
       </c>
-      <c r="BK40" t="s">
+      <c r="BT40" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM40" t="s">
         <v>721</v>
       </c>
-      <c r="BL40" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT40" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU40" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM40" t="s">
-        <v>722</v>
-      </c>
       <c r="CN40" t="s">
         <v>545</v>
       </c>
       <c r="EE40" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF40" t="s">
         <v>563</v>
       </c>
-      <c r="EF40" t="s">
+      <c r="EG40" t="s">
         <v>564</v>
       </c>
-      <c r="EG40" t="s">
+      <c r="EH40" t="s">
         <v>565</v>
       </c>
-      <c r="EH40" t="s">
-        <v>566</v>
-      </c>
       <c r="FO40" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP40" t="s">
         <v>545</v>
@@ -8003,67 +7876,64 @@
         <v>542</v>
       </c>
       <c r="E41" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" t="s">
         <v>723</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>724</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I41" t="s">
+        <v>556</v>
+      </c>
+      <c r="K41" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK41" t="s">
         <v>725</v>
       </c>
-      <c r="H41" t="s">
-        <v>556</v>
-      </c>
-      <c r="I41" t="s">
-        <v>557</v>
-      </c>
-      <c r="K41" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI41" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ41" t="s">
+      <c r="BL41" t="s">
         <v>549</v>
       </c>
-      <c r="BK41" t="s">
+      <c r="BT41" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM41" t="s">
         <v>726</v>
       </c>
-      <c r="BL41" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT41" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU41" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM41" t="s">
-        <v>727</v>
-      </c>
       <c r="CN41" t="s">
         <v>545</v>
       </c>
       <c r="EE41" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF41" t="s">
         <v>563</v>
       </c>
-      <c r="EF41" t="s">
+      <c r="EG41" t="s">
         <v>564</v>
       </c>
-      <c r="EG41" t="s">
+      <c r="EH41" t="s">
         <v>565</v>
       </c>
-      <c r="EH41" t="s">
-        <v>566</v>
-      </c>
       <c r="FO41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP41" t="s">
         <v>545</v>
@@ -8080,67 +7950,64 @@
         <v>542</v>
       </c>
       <c r="E42" t="s">
+        <v>727</v>
+      </c>
+      <c r="F42" t="s">
         <v>728</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>729</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>555</v>
+      </c>
+      <c r="I42" t="s">
+        <v>556</v>
+      </c>
+      <c r="K42" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK42" t="s">
         <v>730</v>
       </c>
-      <c r="H42" t="s">
-        <v>556</v>
-      </c>
-      <c r="I42" t="s">
-        <v>557</v>
-      </c>
-      <c r="K42" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI42" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ42" t="s">
+      <c r="BL42" t="s">
         <v>549</v>
       </c>
-      <c r="BK42" t="s">
+      <c r="BT42" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU42" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV42" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM42" t="s">
         <v>731</v>
       </c>
-      <c r="BL42" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT42" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU42" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV42" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM42" t="s">
-        <v>732</v>
-      </c>
       <c r="CN42" t="s">
         <v>545</v>
       </c>
       <c r="EE42" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF42" t="s">
         <v>563</v>
       </c>
-      <c r="EF42" t="s">
+      <c r="EG42" t="s">
         <v>564</v>
       </c>
-      <c r="EG42" t="s">
+      <c r="EH42" t="s">
         <v>565</v>
       </c>
-      <c r="EH42" t="s">
-        <v>566</v>
-      </c>
       <c r="FO42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP42" t="s">
         <v>545</v>
@@ -8157,67 +8024,64 @@
         <v>542</v>
       </c>
       <c r="E43" t="s">
+        <v>732</v>
+      </c>
+      <c r="F43" t="s">
         <v>733</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>734</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>555</v>
+      </c>
+      <c r="I43" t="s">
+        <v>556</v>
+      </c>
+      <c r="K43" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK43" t="s">
         <v>735</v>
       </c>
-      <c r="H43" t="s">
-        <v>556</v>
-      </c>
-      <c r="I43" t="s">
-        <v>557</v>
-      </c>
-      <c r="K43" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH43" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI43" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ43" t="s">
+      <c r="BL43" t="s">
         <v>549</v>
       </c>
-      <c r="BK43" t="s">
+      <c r="BT43" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU43" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV43" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM43" t="s">
         <v>736</v>
       </c>
-      <c r="BL43" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT43" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU43" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV43" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM43" t="s">
-        <v>737</v>
-      </c>
       <c r="CN43" t="s">
         <v>545</v>
       </c>
       <c r="EE43" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF43" t="s">
         <v>563</v>
       </c>
-      <c r="EF43" t="s">
+      <c r="EG43" t="s">
         <v>564</v>
       </c>
-      <c r="EG43" t="s">
+      <c r="EH43" t="s">
         <v>565</v>
       </c>
-      <c r="EH43" t="s">
-        <v>566</v>
-      </c>
       <c r="FO43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP43" t="s">
         <v>545</v>
@@ -8234,67 +8098,64 @@
         <v>542</v>
       </c>
       <c r="E44" t="s">
+        <v>737</v>
+      </c>
+      <c r="F44" t="s">
         <v>738</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>739</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>555</v>
+      </c>
+      <c r="I44" t="s">
+        <v>556</v>
+      </c>
+      <c r="K44" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>642</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>549</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>700</v>
+      </c>
+      <c r="CM44" t="s">
         <v>740</v>
       </c>
-      <c r="H44" t="s">
-        <v>556</v>
-      </c>
-      <c r="I44" t="s">
-        <v>557</v>
-      </c>
-      <c r="K44" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH44" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI44" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ44" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>643</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT44" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU44" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV44" t="s">
-        <v>701</v>
-      </c>
-      <c r="CM44" t="s">
-        <v>741</v>
-      </c>
       <c r="CN44" t="s">
         <v>545</v>
       </c>
       <c r="EE44" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF44" t="s">
         <v>563</v>
       </c>
-      <c r="EF44" t="s">
+      <c r="EG44" t="s">
         <v>564</v>
       </c>
-      <c r="EG44" t="s">
+      <c r="EH44" t="s">
         <v>565</v>
       </c>
-      <c r="EH44" t="s">
-        <v>566</v>
-      </c>
       <c r="FO44" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FP44" t="s">
         <v>545</v>

--- a/source_data/uploaders/Trial briefs_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Trial briefs_hierarchy_aspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F169D7F-8617-A74B-A27A-9BA5E4F08C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0AFE3-028A-0345-A6DB-8A67FF75D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>9</t>
@@ -2608,7 +2608,7 @@
   <dimension ref="A1:HE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source_data/uploaders/Trial briefs_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Trial briefs_hierarchy_aspace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marloelilongley/Projects/vt-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC0AFE3-028A-0345-A6DB-8A67FF75D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D71FAE-8BBD-4940-8394-1D0031861EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
